--- a/HW/HW4/code/ref_study.xlsx
+++ b/HW/HW4/code/ref_study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="896" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="838" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Up_Sm_max" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>del_t</t>
   </si>
@@ -63,6 +63,36 @@
   <si>
     <t>Non Smooth</t>
   </si>
+  <si>
+    <t>log  2-norm</t>
+  </si>
+  <si>
+    <t>log del_x</t>
+  </si>
+  <si>
+    <t>log max-norm</t>
+  </si>
+  <si>
+    <t>log  1-norm</t>
+  </si>
+  <si>
+    <t>slope max</t>
+  </si>
+  <si>
+    <t>slope 1-norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope 2-norm </t>
+  </si>
+  <si>
+    <t>max-norm ratio</t>
+  </si>
+  <si>
+    <t>1-norm ratio</t>
+  </si>
+  <si>
+    <t>2-norm ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -85,12 +115,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,14 +155,14 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -375,26 +417,32 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Error</a:t>
+                  <a:t>∆x</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -413,14 +461,11 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -514,7 +559,7 @@
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -685,6 +730,466 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>2-norm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LW!$C$4:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8828125E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.220703125E-4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>6.103515625E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LW!$G$4:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.144078786885661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107881593428962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5246325500298598E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3868972582229603E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9350603366493506E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9634002137810598E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2626020673960401E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>3.8982628421054703E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>2.47948571814933E-5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.5730340944142201E-5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.1334030464119599E-5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>6.4737696455907704E-6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>1.52719568379179E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1160-484D-B067-29F44D01ADED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="441399752"/>
+        <c:axId val="441397784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="441399752"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>∆x</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441397784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="441397784"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441399752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>Max-norm</c:v>
           </c:tx>
           <c:spPr>
@@ -766,19 +1271,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.88551918508546</c:v>
+                  <c:v>1.52309036535812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0337484555578902</c:v>
+                  <c:v>2.02648586590754</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4895712788633202</c:v>
+                  <c:v>2.4904777746413602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3760924134644599</c:v>
+                  <c:v>2.3761170886266898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38850609846242</c:v>
+                  <c:v>2.3885060978970798</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.3889385199609299</c:v>
@@ -1089,7 +1594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1243,43 +1748,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.98693062834964396</c:v>
+                  <c:v>0.87559489644511201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934530009938772</c:v>
+                  <c:v>1.07400785964862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0156063664325401</c:v>
+                  <c:v>1.09962085407934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05093053307533</c:v>
+                  <c:v>1.1280256054456099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.06970868112613</c:v>
+                  <c:v>1.13505256861403</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.07301462859604</c:v>
+                  <c:v>1.14531224083397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0751006784270301</c:v>
+                  <c:v>1.1545007233076101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.07673616799094</c:v>
+                  <c:v>1.1592990552322999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0786516008597899</c:v>
+                  <c:v>1.1611235972154901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.07978193378314</c:v>
+                  <c:v>1.1621999605870901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.08043936061532</c:v>
+                  <c:v>1.1628288293795599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0807164840582699</c:v>
+                  <c:v>1.16331135773117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.08089370214081</c:v>
+                  <c:v>1.1635912429067401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +2079,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1706,43 +2211,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.53153589124815004</c:v>
+                  <c:v>0.44460735248512201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.388669172488111</c:v>
+                  <c:v>0.39982498420030499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30086917573272898</c:v>
+                  <c:v>0.309574155024746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.219924239759686</c:v>
+                  <c:v>0.225813846155483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15790236572301999</c:v>
+                  <c:v>0.161820995809171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11232020862877</c:v>
+                  <c:v>0.11583043938893101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9688122851616305E-2</c:v>
+                  <c:v>8.2437607484332501E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6450911995454003E-2</c:v>
+                  <c:v>5.8490397358709798E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9967076166300998E-2</c:v>
+                  <c:v>4.14116107812793E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8279880753023099E-2</c:v>
+                  <c:v>2.93022694722616E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.00040379193865E-2</c:v>
+                  <c:v>2.0727323260314401E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4147235292315E-2</c:v>
+                  <c:v>1.4660187844700299E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.00044811828015E-2</c:v>
+                  <c:v>1.03677259566005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,9 +2801,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Error</a:t>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>∆x</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2408,7 +2918,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -2767,7 +3277,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Error</a:t>
+                  <a:t>∆x</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -2881,7 +3391,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -3141,16 +3651,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.88700500000031</c:v>
+                  <c:v>1.35429500000031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9299560762003101</c:v>
+                  <c:v>1.9298091827003101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3506290736448201</c:v>
+                  <c:v>2.35062514376511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3830734473978801</c:v>
+                  <c:v>2.3830734471035102</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.3857970536944699</c:v>
@@ -3242,7 +3752,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Error</a:t>
+                  <a:t>∆x</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -3356,7 +3866,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -3626,43 +4136,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.96740000000014403</c:v>
+                  <c:v>0.79368200000014399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90388508099408904</c:v>
+                  <c:v>0.99575878730519995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98599546177895303</c:v>
+                  <c:v>1.0366111511517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0271922416419299</c:v>
+                  <c:v>1.08373707037948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.05184945764013</c:v>
+                  <c:v>1.10993574890069</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0591635885738599</c:v>
+                  <c:v>1.1314290517416501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0647499633239801</c:v>
+                  <c:v>1.1439869468246999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0689672056005499</c:v>
+                  <c:v>1.1515459464626701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.07287913793555</c:v>
+                  <c:v>1.15535241649113</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.07551349056042</c:v>
+                  <c:v>1.1579315147537901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0773131107790801</c:v>
+                  <c:v>1.15970257954336</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0784405173763401</c:v>
+                  <c:v>1.1610353910493301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0792434488781699</c:v>
+                  <c:v>1.16194098964431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,10 +4223,24 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3727,7 +4251,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Error</a:t>
+                  <a:t>∆x</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -3747,10 +4271,24 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3841,7 +4379,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -4099,43 +4637,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.52284959842587797</c:v>
+                  <c:v>0.40801134527864202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.381166405806596</c:v>
+                  <c:v>0.37872784154849398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29287361138415902</c:v>
+                  <c:v>0.29498268230699798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.216344448668251</c:v>
+                  <c:v>0.219543520239246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15637595367568699</c:v>
+                  <c:v>0.15938344475326199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.111553362259976</c:v>
+                  <c:v>0.11472430371410899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9288115104363302E-2</c:v>
+                  <c:v>8.1916216578829901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6240851213845103E-2</c:v>
+                  <c:v>5.82385178794676E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9857323782654101E-2</c:v>
+                  <c:v>4.1288183477570101E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.82228755142011E-2</c:v>
+                  <c:v>2.9241024533146798E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9974622115889101E-2</c:v>
+                  <c:v>2.0696720074011101E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4132143431033899E-2</c:v>
+                  <c:v>1.4644836869306699E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9967755071878502E-3</c:v>
+                  <c:v>1.03600108614614E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4200,7 +4738,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Error</a:t>
+                  <a:t>∆x</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -4314,7 +4852,7 @@
                   <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>∆x</a:t>
+                  <a:t>Error</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US">
                   <a:effectLst/>
@@ -4433,6 +4971,369 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>UP!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2041199826559248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.505149978319906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8061799739838871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1072099696478683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4082399653118496</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7092699609758308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0102999566398121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3113299523037933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6123599479677742</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9133899436317554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2144199392957367</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>UP!$K$4:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.61851772573211239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91288125215113536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2015524374906605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5190048321964436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8207651962859515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.277646135389316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7671789796294175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2625862879541327</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7066579177858339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1312706178946037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4878004783148766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9654618318780495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4650342418746831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B186-4A30-B22A-7800FBF0070C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465708984"/>
+        <c:axId val="465718824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465708984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465718824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465718824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465708984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4892,7 +5793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5091,466 +5992,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-116A-469A-B46D-4A3000327ABD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="441399752"/>
-        <c:axId val="441397784"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="441399752"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>∆x</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="441397784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="441397784"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="441399752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>2-norm</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="50800" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="50800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>LW!$C$4:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.125E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5625E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8125E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.90625E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.953125E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.765625E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8828125E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.44140625E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.220703125E-4</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>6.103515625E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>LW!$G$4:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.144078786885661</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.107881593428962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5246325500298598E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3868972582229603E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.9350603366493506E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9634002137810598E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.2626020673960401E-4</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>3.8982628421054703E-5</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>2.47948571814933E-5</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.5730340944142201E-5</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.1334030464119599E-5</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>6.4737696455907704E-6</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.52719568379179E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1160-484D-B067-29F44D01ADED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5994,6 +6435,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8378,6 +8859,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12654,7 +13651,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12687,7 +13684,40 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646D8A0-076F-4661-95D9-E17E74DEDBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12716,11 +13746,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12749,11 +13779,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12786,7 +13816,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12819,7 +13849,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12852,7 +13882,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12885,7 +13915,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12918,7 +13948,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12949,9 +13979,50 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78358885-6FBB-41BE-9A34-18F382DEB25C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12980,50 +14051,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE40836-0FF0-48A9-83F4-1F7AA512DDB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6293013"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646D8A0-076F-4661-95D9-E17E74DEDBD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13309,730 +14347,1178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.45</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.4166000000002501</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.944400000000166</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0.64610110663909204</v>
       </c>
+      <c r="H3" s="3">
+        <f>ABS(LOG10(C3))</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:J16" si="0">ABS(LOG10(E3))</f>
+        <v>0.15124723746244731</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4844021593234279E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K16" si="1">ABS(LOG10(G3))</f>
+        <v>0.18969951510154365</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0.76443750000004096</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.48375900000008998</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.24070342739256501</v>
       </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H16" si="2">ABS(LOG10(C4))</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11665801648408232</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3153709421507746</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.61851772573211239</v>
+      </c>
+      <c r="L4">
+        <f>E3/E4</f>
+        <v>1.8531272994851433</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:N16" si="3">F3/F4</f>
+        <v>1.9522117417970319</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>2.6842206346541171</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.1125</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.125</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0.53920115592307205</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.33516012854175797</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.12221337788895401</v>
       </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26824918544441018</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.47474765168923416</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.91288125215113536</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L15" si="4">E4/E5</f>
+        <v>1.4177222945514298</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.4433667933738661</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1.9695341995315268</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.45521958222304498</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.235324124040316</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>6.2870593845822706E-2</v>
       </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.34177906412508802</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62833354923470885</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2015524374906605</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.1844858546943582</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1.4242489158669425</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>1.9438877607655076</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>33</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.28564100994210501</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.15145288406544799</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>3.02687974920475E-2</v>
       </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5441794400577511</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81972245213116735</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5190048321964436</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>1.5936772605422131</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.5537777672072879</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>2.077076033903912</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1.40625E-2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>73</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1.5625E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>65</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.217801893494976</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.104654468598124</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1.51089680809722E-2</v>
       </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.66193834895652925</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.98024222316787291</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8207651962859515</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>1.3114716560014381</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1.4471707333112662</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>2.0033663007182572</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7.0312500000000002E-3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>144</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>7.8125E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>129</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.104894298000547</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>5.1995413025702097E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>5.2765962515732298E-3</v>
       </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97924811918683774</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2840349676246987</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.277646135389316</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>2.0763940237613316</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>2.0127634825478116</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>2.8633928693080173</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3.5156250000000001E-3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>286</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.90625E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>257</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>4.5607254047712903E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>2.4049787863376401E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1.70931073590922E-3</v>
       </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.34096607526676</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6188887500665055</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7671789796294175</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.299947676981601</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2.1619905057408833</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>3.0869730943136515</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1.7578125E-3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>570</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.953125E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>513</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2.0432725721884499E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1.10005984526741E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>5.4627800165901904E-4</v>
       </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7092699609758308</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6896736946982891</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9585836877850233</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2625862879541327</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>2.232069018518914</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>2.1862254100848681</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>3.1290125736678549</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>8.7890625000000002E-4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1139</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>9.765625E-4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1025</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1.00900747155996E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>5.5915259479453897E-3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1.96490737273747E-4</v>
       </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0102999566398121</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9961056178609606</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>2.252469655380835</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7066579177858339</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>2.0250321526653128</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.9673696509834275</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2.7801717741938918</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>4.3945312500000001E-4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2277</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>4.8828125E-4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2049</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>5.3674136624763296E-3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>2.9529164122310101E-3</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>7.3914455523626602E-5</v>
       </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3113299523037933</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2702349326787057</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5297488463707212</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1312706178946037</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1.8798764824368699</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1.893560523686086</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>2.658353306964957</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2.1972656250000001E-4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>4553</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2.44140625E-4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4097</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>3.6549098558739598E-3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1.80178049946788E-3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="2">
         <v>3.2523668189219897E-5</v>
       </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6123599479677742</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4371233299453259</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7442981177278001</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4878004783148766</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1.4685488491187089</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1.6388879850254208</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>2.2726358876126356</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>1.0986328125E-4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>9104</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1.220703125E-4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>8193</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>1.6955875563981399E-3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>8.5244137857526305E-4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="2">
         <v>1.0827748709928601E-5</v>
       </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9133899436317554</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>2.7706797792985873</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0693354772464985</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>4.9654618318780495</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2.1555418014731837</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>2.1136708573196024</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>3.003733191498712</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>5.4931640625000001E-5</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>18206</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>6.103515625E-5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>16385</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>7.2649821046305498E-4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>3.8557130565004003E-4</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="2">
         <v>3.4274076214390299E-6</v>
       </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2144199392957367</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1387654511346832</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4138952939122138</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="1"/>
+        <v>5.4650342418746831</v>
+      </c>
+      <c r="L16">
+        <f>E15/E16</f>
+        <v>2.3339184212407176</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2.2108527426285529</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>3.1591657327827458</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="5">
+        <f>($H$16-$H$3)/(I16-I3)</f>
+        <v>1.3099133339915088</v>
+      </c>
+      <c r="M18" s="5">
+        <f>($H$16-$H$3)/(J16-J3)</f>
+        <v>1.1547154732049816</v>
+      </c>
+      <c r="N18" s="5">
+        <f>($H$16-$H$3)/(K16-K3)</f>
+        <v>0.74182779791596853</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>AVERAGE(L4:L16)</f>
+        <v>1.8332163685747094</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:N19" si="5">AVERAGE(M4:M16)</f>
+        <v>1.8466228545825421</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2.5870402584550609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>0.45</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>0.5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="3">
-        <v>1.95140000000031</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.96760000000030999</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0.69348195041812699</v>
+      <c r="E36" s="1">
+        <v>1.29170000000031</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.86113333333364295</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.54665192459809597</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>0.25</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="E37" s="3">
-        <v>1.88700500000031</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.96740000000014403</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.52284959842587797</v>
+      <c r="E37" s="1">
+        <v>1.35429500000031</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.79368200000014399</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.40801134527864202</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>0.1125</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>10</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>0.125</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>9</v>
       </c>
-      <c r="E38" s="3">
-        <v>1.9299560762003101</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.90388508099408904</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.381166405806596</v>
+      <c r="E38" s="1">
+        <v>1.9298091827003101</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.99575878730519995</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.37872784154849398</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>19</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>6.25E-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>17</v>
       </c>
-      <c r="E39" s="3">
-        <v>2.3506290736448201</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.98599546177895303</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.29287361138415902</v>
+      <c r="E39" s="1">
+        <v>2.35062514376511</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.0366111511517</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.29498268230699798</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>37</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>3.125E-2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>33</v>
       </c>
-      <c r="E40" s="3">
-        <v>2.3830734473978801</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1.0271922416419299</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.216344448668251</v>
+      <c r="E40" s="1">
+        <v>2.3830734471035102</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.08373707037948</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.219543520239246</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>1.40625E-2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>73</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>1.5625E-2</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>65</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="1">
         <v>2.3857970536944699</v>
       </c>
-      <c r="F41" s="3">
-        <v>1.05184945764013</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0.15637595367568699</v>
+      <c r="F41" s="1">
+        <v>1.10993574890069</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.15938344475326199</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>7.0312500000000002E-3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>144</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>7.8125E-3</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>129</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="1">
         <v>2.3890049011111398</v>
       </c>
-      <c r="F42" s="3">
-        <v>1.0591635885738599</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0.111553362259976</v>
+      <c r="F42" s="1">
+        <v>1.1314290517416501</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.11472430371410899</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>3.5156250000000001E-3</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>286</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>3.90625E-3</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>257</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="1">
         <v>2.3890049197206902</v>
       </c>
-      <c r="F43" s="3">
-        <v>1.0647499633239801</v>
-      </c>
-      <c r="G43" s="3">
-        <v>7.9288115104363302E-2</v>
+      <c r="F43" s="1">
+        <v>1.1439869468246999</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8.1916216578829901E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>1.7578125E-3</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>570</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>1.953125E-3</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>513</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>2.3893832427983002</v>
       </c>
-      <c r="F44" s="3">
-        <v>1.0689672056005499</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5.6240851213845103E-2</v>
+      <c r="F44" s="1">
+        <v>1.1515459464626701</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5.82385178794676E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>8.7890625000000002E-4</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>1139</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>9.765625E-4</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>1025</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="1">
         <v>2.3893832427983002</v>
       </c>
-      <c r="F45" s="3">
-        <v>1.07287913793555</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3.9857323782654101E-2</v>
+      <c r="F45" s="1">
+        <v>1.15535241649113</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4.1288183477570101E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>4.3945312500000001E-4</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>2277</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>4.8828125E-4</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>2049</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="1">
         <v>2.3893832427983002</v>
       </c>
-      <c r="F46" s="3">
-        <v>1.07551349056042</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2.82228755142011E-2</v>
+      <c r="F46" s="1">
+        <v>1.1579315147537901</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2.9241024533146798E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>2.1972656250000001E-4</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>4553</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>2.44140625E-4</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>4097</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="1">
         <v>2.3893832427983002</v>
       </c>
-      <c r="F47" s="3">
-        <v>1.0773131107790801</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1.9974622115889101E-2</v>
+      <c r="F47" s="1">
+        <v>1.15970257954336</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2.0696720074011101E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>1.0986328125E-4</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>9104</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>1.220703125E-4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>8193</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="1">
         <v>2.3893832427983002</v>
       </c>
-      <c r="F48" s="3">
-        <v>1.0784405173763401</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1.4132143431033899E-2</v>
+      <c r="F48" s="1">
+        <v>1.1610353910493301</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.4644836869306699E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="2">
         <v>5.4931640625000001E-5</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>18206</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="2">
         <v>6.103515625E-5</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>16385</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="1">
         <v>2.3893833758098602</v>
       </c>
-      <c r="F49" s="3">
-        <v>1.0792434488781699</v>
-      </c>
-      <c r="G49" s="3">
-        <v>9.9967755071878502E-3</v>
+      <c r="F49" s="1">
+        <v>1.16194098964431</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.03600108614614E-2</v>
       </c>
     </row>
   </sheetData>
@@ -14042,25 +15528,28 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" customWidth="1"/>
+    <col min="8" max="11" width="17" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -14071,7 +15560,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14093,11 +15582,29 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.45</v>
       </c>
@@ -14119,11 +15626,24 @@
       <c r="G3" s="1">
         <v>0.47988508517578299</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="3">
+        <f>ABS(LOG10(C3))</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="I3" s="3">
+        <f>ABS(LOG10(E3))</f>
+        <v>2.6558934327319046E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:K16" si="0">ABS(LOG10(F3))</f>
+        <v>0.1495323247283602</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31886274772649531</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -14145,11 +15665,36 @@
       <c r="G4" s="1">
         <v>0.144078786885661</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H16" si="1">ABS(LOG10(C4))</f>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I16" si="2">ABS(LOG10(E4))</f>
+        <v>0.29964378423336746</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55851265587047949</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.84139995684511193</v>
+      </c>
+      <c r="L4">
+        <f>E3/E4</f>
+        <v>2.1193501677554165</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:N16" si="3">F3/F4</f>
+        <v>2.564367895668672</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>3.3307129768979342</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.1125</v>
       </c>
@@ -14171,11 +15716,36 @@
       <c r="G5" s="1">
         <v>0.107881593428962</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.32782566068081892</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55879008964918742</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96705264757051024</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L16" si="4">E4/E5</f>
+        <v>1.0670428902937141</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.0006390189688286</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>1.3355270561565646</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5.6250000000000001E-2</v>
       </c>
@@ -14197,11 +15767,36 @@
       <c r="G6" s="1">
         <v>4.5246325500298598E-2</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2041199826559248</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5724967633387843</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.78410416852772546</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3444166845193566</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.75659281756847</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1.6800185571342505</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>2.3843172287714292</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.8125000000000001E-2</v>
       </c>
@@ -14223,11 +15818,36 @@
       <c r="G7" s="1">
         <v>9.3868972582229603E-3</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.505149978319906</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89784381152664017</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3811076499483628</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.027477935562398</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>2.1151786207911867</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>3.9536978944532404</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>4.8201577428220634</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.40625E-2</v>
       </c>
@@ -14249,11 +15869,36 @@
       <c r="G8" s="1">
         <v>8.9350603366493506E-3</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8061799739838871</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86890846796277066</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2388076746757448</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0489025104459255</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.93554494485443174</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.72060956881868954</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>1.0505689838176346</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.0312500000000002E-3</v>
       </c>
@@ -14275,11 +15920,36 @@
       <c r="G9" s="1">
         <v>2.9634002137810598E-3</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.1072099696478683</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1529937918455726</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5618133383667734</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5282096921246024</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1.9234695872062533</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>2.1038058755946194</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>3.0151379132314138</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.5156250000000001E-3</v>
       </c>
@@ -14301,11 +15971,36 @@
       <c r="G10" s="1">
         <v>7.2626020673960401E-4</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4082399653118496</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4955831755862641</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>2.022752319742247</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1389077510566357</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>2.2008446269348014</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2.8902737687094686</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>4.0803560298100816</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.7578125E-3</v>
       </c>
@@ -14327,11 +16022,36 @@
       <c r="G11" s="2">
         <v>3.8982628421054703E-5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7092699609758308</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9826643605769239</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>3.4198851752018493</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>4.4091288817326113</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>3.069595750715028</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>24.953579676483841</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>18.630355010832144</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8.7890625000000002E-4</v>
       </c>
@@ -14353,11 +16073,36 @@
       <c r="G12" s="2">
         <v>2.47948571814933E-5</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>3.0102999566398121</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2007014572898034</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2120399930701802</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6056383889041479</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>1.6521029120871535</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>0.61966193360988442</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1.5722062093647005</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4.3945312500000001E-4</v>
       </c>
@@ -14379,11 +16124,36 @@
       <c r="G13" s="2">
         <v>2.5730340944142201E-5</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3113299523037933</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3868469740576588</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0155810218205019</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>4.589554459060599</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>1.5351312649944218</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>0.63612289792121302</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.96364277625859152</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2.1972656250000001E-4</v>
       </c>
@@ -14405,11 +16175,36 @@
       <c r="G14" s="2">
         <v>2.1334030464119599E-5</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6123599479677742</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5282323982943091</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9435085529339582</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.6709270890901369</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>1.3847948005484061</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>0.84708605267363413</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1.2060703197839944</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1.0986328125E-4</v>
       </c>
@@ -14431,11 +16226,36 @@
       <c r="G15" s="2">
         <v>6.4737696455907704E-6</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9133899436317554</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8563032257632592</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3108548579074299</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1888427580426004</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>2.1284861445533934</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>2.3299484102254979</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>3.2954571497072074</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5.4931640625000001E-5</v>
       </c>
@@ -14457,11 +16277,75 @@
       <c r="G16" s="2">
         <v>1.52719568379179E-6</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2144199392957367</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2275790504174253</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>3.7877476383332773</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>5.816105312029304</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>2.3511255695105429</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>2.9984221705606191</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>4.2389915806449929</v>
+      </c>
     </row>
-    <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L18" s="5">
+        <f>($H$16-$H$3)/(I16-I3)</f>
+        <v>1.2225446269334213</v>
+      </c>
+      <c r="M18" s="5">
+        <f>($H$16-$H$3)/(J16-J3)</f>
+        <v>1.0756345093150033</v>
+      </c>
+      <c r="N18" s="5">
+        <f>($H$16-$H$3)/(K16-K3)</f>
+        <v>0.71188234789637184</v>
+      </c>
+    </row>
+    <row r="19" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>AVERAGE(L4:L16)</f>
+        <v>1.8645584690625552</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:N19" si="5">AVERAGE(M4:M16)</f>
+        <v>3.6383256708324963</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>3.8402693060075968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
@@ -14472,7 +16356,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -14494,11 +16378,8 @@
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.45</v>
       </c>
@@ -14512,19 +16393,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>1.9514477168753099</v>
+        <v>1.46846858375031</v>
       </c>
       <c r="F35" s="1">
-        <v>0.96763181125030995</v>
+        <v>0.97897905583364297</v>
       </c>
       <c r="G35" s="1">
-        <v>0.68806329236434405</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+        <v>0.60818156245511501</v>
+      </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.22500000000000001</v>
       </c>
@@ -14538,19 +16416,16 @@
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>1.88551918508546</v>
+        <v>1.52309036535812</v>
       </c>
       <c r="F36" s="1">
-        <v>0.98693062834964396</v>
+        <v>0.87559489644511201</v>
       </c>
       <c r="G36" s="1">
-        <v>0.53153589124815004</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+        <v>0.44460735248512201</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.1125</v>
       </c>
@@ -14564,19 +16439,16 @@
         <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>2.0337484555578902</v>
+        <v>2.02648586590754</v>
       </c>
       <c r="F37" s="1">
-        <v>0.934530009938772</v>
+        <v>1.07400785964862</v>
       </c>
       <c r="G37" s="1">
-        <v>0.388669172488111</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+        <v>0.39982498420030499</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5.6250000000000001E-2</v>
       </c>
@@ -14590,19 +16462,16 @@
         <v>17</v>
       </c>
       <c r="E38" s="1">
-        <v>2.4895712788633202</v>
+        <v>2.4904777746413602</v>
       </c>
       <c r="F38" s="1">
-        <v>1.0156063664325401</v>
+        <v>1.09962085407934</v>
       </c>
       <c r="G38" s="1">
-        <v>0.30086917573272898</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+        <v>0.309574155024746</v>
+      </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2.8125000000000001E-2</v>
       </c>
@@ -14616,19 +16485,16 @@
         <v>33</v>
       </c>
       <c r="E39" s="1">
-        <v>2.3760924134644599</v>
+        <v>2.3761170886266898</v>
       </c>
       <c r="F39" s="1">
-        <v>1.05093053307533</v>
+        <v>1.1280256054456099</v>
       </c>
       <c r="G39" s="1">
-        <v>0.219924239759686</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+        <v>0.225813846155483</v>
+      </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.40625E-2</v>
       </c>
@@ -14642,19 +16508,16 @@
         <v>65</v>
       </c>
       <c r="E40" s="1">
-        <v>2.38850609846242</v>
+        <v>2.3885060978970798</v>
       </c>
       <c r="F40" s="1">
-        <v>1.06970868112613</v>
+        <v>1.13505256861403</v>
       </c>
       <c r="G40" s="1">
-        <v>0.15790236572301999</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+        <v>0.161820995809171</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>7.0312500000000002E-3</v>
       </c>
@@ -14671,16 +16534,13 @@
         <v>2.3889385199609299</v>
       </c>
       <c r="F41" s="1">
-        <v>1.07301462859604</v>
+        <v>1.14531224083397</v>
       </c>
       <c r="G41" s="1">
-        <v>0.11232020862877</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+        <v>0.11583043938893101</v>
+      </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3.5156250000000001E-3</v>
       </c>
@@ -14697,16 +16557,13 @@
         <v>2.3890049916818401</v>
       </c>
       <c r="F42" s="1">
-        <v>1.0751006784270301</v>
+        <v>1.1545007233076101</v>
       </c>
       <c r="G42" s="1">
-        <v>7.9688122851616305E-2</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+        <v>8.2437607484332501E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.7578125E-3</v>
       </c>
@@ -14723,16 +16580,13 @@
         <v>2.38938324279827</v>
       </c>
       <c r="F43" s="1">
-        <v>1.07673616799094</v>
+        <v>1.1592990552322999</v>
       </c>
       <c r="G43" s="1">
-        <v>5.6450911995454003E-2</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+        <v>5.8490397358709798E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8.7890625000000002E-4</v>
       </c>
@@ -14749,16 +16603,13 @@
         <v>2.3893832427983002</v>
       </c>
       <c r="F44" s="1">
-        <v>1.0786516008597899</v>
+        <v>1.1611235972154901</v>
       </c>
       <c r="G44" s="1">
-        <v>3.9967076166300998E-2</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+        <v>4.14116107812793E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>4.3945312500000001E-4</v>
       </c>
@@ -14775,16 +16626,13 @@
         <v>2.3893832427983002</v>
       </c>
       <c r="F45" s="1">
-        <v>1.07978193378314</v>
+        <v>1.1621999605870901</v>
       </c>
       <c r="G45" s="1">
-        <v>2.8279880753023099E-2</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
+        <v>2.93022694722616E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2.1972656250000001E-4</v>
       </c>
@@ -14801,16 +16649,13 @@
         <v>2.3893832427983002</v>
       </c>
       <c r="F46" s="1">
-        <v>1.08043936061532</v>
+        <v>1.1628288293795599</v>
       </c>
       <c r="G46" s="1">
-        <v>2.00040379193865E-2</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
+        <v>2.0727323260314401E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1.0986328125E-4</v>
       </c>
@@ -14827,16 +16672,13 @@
         <v>2.3893832427983002</v>
       </c>
       <c r="F47" s="1">
-        <v>1.0807164840582699</v>
+        <v>1.16331135773117</v>
       </c>
       <c r="G47" s="1">
-        <v>1.4147235292315E-2</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+        <v>1.4660187844700299E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>5.4931640625000001E-5</v>
       </c>
@@ -14853,14 +16695,11 @@
         <v>2.3893833758098602</v>
       </c>
       <c r="F48" s="1">
-        <v>1.08089370214081</v>
+        <v>1.1635912429067401</v>
       </c>
       <c r="G48" s="1">
-        <v>1.00044811828015E-2</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+        <v>1.03677259566005E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
